--- a/eda_weasel/test_data/EDA_vlad_2_results.xlsx
+++ b/eda_weasel/test_data/EDA_vlad_2_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Vlad\Experiment 2\Eda\1 sec\2023-07-11 17.25.00 vlad mes 3 eda_result_2023-08-14 17.21.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robo Project\eda_rocket\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88AB3EE-A384-463A-A12B-5F9A3FDB5400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA28896B-212A-4B0B-9133-D94971C2A817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="0" windowWidth="15630" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movisens DataAnalyzer Results" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,22 +687,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A870" workbookViewId="0">
-      <selection activeCell="Y879" sqref="Y879"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="27.375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="8" width="27.375" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="27.375" customWidth="1"/>
-    <col min="12" max="24" width="27.375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="8" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="27.33203125" customWidth="1"/>
+    <col min="12" max="24" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -22114,7 +22114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -22653,7 +22653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -22807,7 +22807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -22961,7 +22961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -23577,7 +23577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -23654,7 +23654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -23731,7 +23731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -23962,7 +23962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -24193,7 +24193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -24501,7 +24501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -24732,7 +24732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
@@ -24886,7 +24886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -25117,7 +25117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -25194,7 +25194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -25502,7 +25502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -25810,7 +25810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -25964,7 +25964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -26272,7 +26272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -26734,7 +26734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -27119,7 +27119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -27196,7 +27196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -27350,7 +27350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -27504,7 +27504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -27581,7 +27581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -27658,7 +27658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -27889,7 +27889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -28428,7 +28428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -28505,7 +28505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -28659,7 +28659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -28813,7 +28813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>364</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -28967,7 +28967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -29044,7 +29044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -29198,7 +29198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -29275,7 +29275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -29352,7 +29352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -29429,7 +29429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -29506,7 +29506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -29583,7 +29583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -29737,7 +29737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -29814,7 +29814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -29891,7 +29891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -30045,7 +30045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -30199,7 +30199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -30276,7 +30276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -30353,7 +30353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -30507,7 +30507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -30584,7 +30584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -30661,7 +30661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -30738,7 +30738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -30815,7 +30815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -30969,7 +30969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -31200,7 +31200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -31277,7 +31277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -31354,7 +31354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -31662,7 +31662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -31816,7 +31816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -31970,7 +31970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -32047,7 +32047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -32124,7 +32124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -32201,7 +32201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -32432,7 +32432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>411</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -32586,7 +32586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -32817,7 +32817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -33125,7 +33125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -33202,7 +33202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
@@ -33279,7 +33279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>422</v>
       </c>
@@ -33356,7 +33356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -33433,7 +33433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -33587,7 +33587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -33664,7 +33664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -33741,7 +33741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -33818,7 +33818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
@@ -33972,7 +33972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -34049,7 +34049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -34126,7 +34126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -34203,7 +34203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -34280,7 +34280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -34357,7 +34357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -34434,7 +34434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -34511,7 +34511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>438</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -34665,7 +34665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -34742,7 +34742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -34896,7 +34896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -35050,7 +35050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -35127,7 +35127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -35204,7 +35204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A449" s="5">
         <v>447</v>
       </c>
@@ -35284,7 +35284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
         <v>448</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A451" s="5">
         <v>449</v>
       </c>
@@ -35442,7 +35442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A452" s="5">
         <v>450</v>
       </c>
@@ -35522,7 +35522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
         <v>451</v>
       </c>
@@ -35600,7 +35600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A454" s="5">
         <v>452</v>
       </c>
@@ -35678,7 +35678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A455" s="5">
         <v>453</v>
       </c>
@@ -35756,7 +35756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A456" s="5">
         <v>454</v>
       </c>
@@ -35834,7 +35834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A457" s="5">
         <v>455</v>
       </c>
@@ -35912,7 +35912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A458" s="5">
         <v>456</v>
       </c>
@@ -35990,7 +35990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>457</v>
       </c>
@@ -36067,7 +36067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>458</v>
       </c>
@@ -36144,7 +36144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -36221,7 +36221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -36298,7 +36298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -36375,7 +36375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -36452,7 +36452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -36529,7 +36529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -36606,7 +36606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -36683,7 +36683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -36760,7 +36760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -36837,7 +36837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -36914,7 +36914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -36991,7 +36991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -37068,7 +37068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -37145,7 +37145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -37299,7 +37299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -37376,7 +37376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -37453,7 +37453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -37530,7 +37530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -37607,7 +37607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -37684,7 +37684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -37761,7 +37761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -37838,7 +37838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
@@ -37915,7 +37915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="484" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
@@ -37992,7 +37992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
@@ -38069,7 +38069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
@@ -38146,7 +38146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
@@ -38223,7 +38223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
@@ -38300,7 +38300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
@@ -38377,7 +38377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
@@ -38454,7 +38454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
@@ -38531,7 +38531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
@@ -38608,7 +38608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
@@ -38685,7 +38685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
@@ -38762,7 +38762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
@@ -38839,7 +38839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
@@ -38916,7 +38916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>495</v>
       </c>
@@ -38993,7 +38993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
@@ -39070,7 +39070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
@@ -39147,7 +39147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
@@ -39224,7 +39224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>499</v>
       </c>
@@ -39301,7 +39301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
@@ -39378,7 +39378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
@@ -39455,7 +39455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>502</v>
       </c>
@@ -39532,7 +39532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="505" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
@@ -39609,7 +39609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
@@ -39686,7 +39686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="507" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>505</v>
       </c>
@@ -39763,7 +39763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>506</v>
       </c>
@@ -39840,7 +39840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>507</v>
       </c>
@@ -39917,7 +39917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="510" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>508</v>
       </c>
@@ -39994,7 +39994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
@@ -40071,7 +40071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
@@ -40148,7 +40148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>511</v>
       </c>
@@ -40225,7 +40225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>512</v>
       </c>
@@ -40302,7 +40302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="515" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>513</v>
       </c>
@@ -40379,7 +40379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>514</v>
       </c>
@@ -40456,7 +40456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>515</v>
       </c>
@@ -40533,7 +40533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>516</v>
       </c>
@@ -40610,7 +40610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="519" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>517</v>
       </c>
@@ -40687,7 +40687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>518</v>
       </c>
@@ -40764,7 +40764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="521" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>519</v>
       </c>
@@ -40841,7 +40841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>520</v>
       </c>
@@ -40918,7 +40918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>521</v>
       </c>
@@ -40995,7 +40995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>522</v>
       </c>
@@ -41072,7 +41072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>523</v>
       </c>
@@ -41149,7 +41149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>524</v>
       </c>
@@ -41226,7 +41226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>525</v>
       </c>
@@ -41303,7 +41303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>526</v>
       </c>
@@ -41380,7 +41380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>527</v>
       </c>
@@ -41457,7 +41457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>528</v>
       </c>
@@ -41534,7 +41534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>529</v>
       </c>
@@ -41611,7 +41611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>530</v>
       </c>
@@ -41688,7 +41688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>531</v>
       </c>
@@ -41765,7 +41765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
@@ -41842,7 +41842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
@@ -41919,7 +41919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
@@ -41996,7 +41996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
@@ -42073,7 +42073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
@@ -42150,7 +42150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>537</v>
       </c>
@@ -42227,7 +42227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>538</v>
       </c>
@@ -42304,7 +42304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>539</v>
       </c>
@@ -42381,7 +42381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>540</v>
       </c>
@@ -42458,7 +42458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
@@ -42535,7 +42535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="544" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
@@ -42612,7 +42612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="545" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>543</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="546" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
@@ -42766,7 +42766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>545</v>
       </c>
@@ -42843,7 +42843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="548" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>546</v>
       </c>
@@ -42920,7 +42920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="549" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>547</v>
       </c>
@@ -42997,7 +42997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="550" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
@@ -43074,7 +43074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
@@ -43151,7 +43151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="552" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
@@ -43228,7 +43228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="553" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
@@ -43305,7 +43305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="554" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
@@ -43382,7 +43382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>553</v>
       </c>
@@ -43459,7 +43459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>554</v>
       </c>
@@ -43536,7 +43536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="557" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>555</v>
       </c>
@@ -43613,7 +43613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="558" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>556</v>
       </c>
@@ -43690,7 +43690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="559" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>557</v>
       </c>
@@ -43767,7 +43767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="560" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>558</v>
       </c>
@@ -43844,7 +43844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="561" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>559</v>
       </c>
@@ -43921,7 +43921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="562" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>560</v>
       </c>
@@ -43998,7 +43998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="563" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>561</v>
       </c>
@@ -44075,7 +44075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="564" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>562</v>
       </c>
@@ -44152,7 +44152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="565" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>563</v>
       </c>
@@ -44229,7 +44229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="566" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>564</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="567" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>565</v>
       </c>
@@ -44383,7 +44383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="568" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>566</v>
       </c>
@@ -44460,7 +44460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="569" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>567</v>
       </c>
@@ -44537,7 +44537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="570" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>568</v>
       </c>
@@ -44614,7 +44614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="571" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>569</v>
       </c>
@@ -44691,7 +44691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="572" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>570</v>
       </c>
@@ -44768,7 +44768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="573" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>571</v>
       </c>
@@ -44845,7 +44845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="574" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>572</v>
       </c>
@@ -44922,7 +44922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="575" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>573</v>
       </c>
@@ -44999,7 +44999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>574</v>
       </c>
@@ -45076,7 +45076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>575</v>
       </c>
@@ -45153,7 +45153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>576</v>
       </c>
@@ -45230,7 +45230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>577</v>
       </c>
@@ -45307,7 +45307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>578</v>
       </c>
@@ -45384,7 +45384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>579</v>
       </c>
@@ -45461,7 +45461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>580</v>
       </c>
@@ -45538,7 +45538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>581</v>
       </c>
@@ -45615,7 +45615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>582</v>
       </c>
@@ -45692,7 +45692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>583</v>
       </c>
@@ -45769,7 +45769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>584</v>
       </c>
@@ -45846,7 +45846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>585</v>
       </c>
@@ -45923,7 +45923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>586</v>
       </c>
@@ -46000,7 +46000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>587</v>
       </c>
@@ -46077,7 +46077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>588</v>
       </c>
@@ -46154,7 +46154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="591" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>589</v>
       </c>
@@ -46231,7 +46231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>590</v>
       </c>
@@ -46308,7 +46308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="593" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>591</v>
       </c>
@@ -46385,7 +46385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>592</v>
       </c>
@@ -46462,7 +46462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>593</v>
       </c>
@@ -46539,7 +46539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>594</v>
       </c>
@@ -46616,7 +46616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>595</v>
       </c>
@@ -46693,7 +46693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>596</v>
       </c>
@@ -46770,7 +46770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>597</v>
       </c>
@@ -46847,7 +46847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>598</v>
       </c>
@@ -46924,7 +46924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>599</v>
       </c>
@@ -47001,7 +47001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>600</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="603" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>601</v>
       </c>
@@ -47155,7 +47155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>602</v>
       </c>
@@ -47232,7 +47232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="605" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>603</v>
       </c>
@@ -47309,7 +47309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="606" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>604</v>
       </c>
@@ -47386,7 +47386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>605</v>
       </c>
@@ -47463,7 +47463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="608" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>606</v>
       </c>
@@ -47540,7 +47540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>607</v>
       </c>
@@ -47617,7 +47617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>608</v>
       </c>
@@ -47694,7 +47694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>609</v>
       </c>
@@ -47771,7 +47771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="612" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>610</v>
       </c>
@@ -47848,7 +47848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>611</v>
       </c>
@@ -47925,7 +47925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>612</v>
       </c>
@@ -48002,7 +48002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>613</v>
       </c>
@@ -48079,7 +48079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>614</v>
       </c>
@@ -48156,7 +48156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>615</v>
       </c>
@@ -48233,7 +48233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>616</v>
       </c>
@@ -48310,7 +48310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>617</v>
       </c>
@@ -48387,7 +48387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>618</v>
       </c>
@@ -48464,7 +48464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>619</v>
       </c>
@@ -48541,7 +48541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>620</v>
       </c>
@@ -48618,7 +48618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>621</v>
       </c>
@@ -48695,7 +48695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>622</v>
       </c>
@@ -48772,7 +48772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>623</v>
       </c>
@@ -48849,7 +48849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>624</v>
       </c>
@@ -48926,7 +48926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>625</v>
       </c>
@@ -49003,7 +49003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>626</v>
       </c>
@@ -49080,7 +49080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>627</v>
       </c>
@@ -49157,7 +49157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="630" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>628</v>
       </c>
@@ -49234,7 +49234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>629</v>
       </c>
@@ -49311,7 +49311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>630</v>
       </c>
@@ -49388,7 +49388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>631</v>
       </c>
@@ -49465,7 +49465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>632</v>
       </c>
@@ -49542,7 +49542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="635" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>633</v>
       </c>
@@ -49619,7 +49619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>634</v>
       </c>
@@ -49696,7 +49696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>635</v>
       </c>
@@ -49773,7 +49773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>636</v>
       </c>
@@ -49850,7 +49850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>637</v>
       </c>
@@ -49927,7 +49927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="640" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>638</v>
       </c>
@@ -50004,7 +50004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="641" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>639</v>
       </c>
@@ -50081,7 +50081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="642" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>640</v>
       </c>
@@ -50158,7 +50158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="643" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>641</v>
       </c>
@@ -50235,7 +50235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="644" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>642</v>
       </c>
@@ -50312,7 +50312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="645" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>643</v>
       </c>
@@ -50389,7 +50389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="646" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>644</v>
       </c>
@@ -50466,7 +50466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="647" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>645</v>
       </c>
@@ -50543,7 +50543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="648" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>646</v>
       </c>
@@ -50620,7 +50620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="649" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>647</v>
       </c>
@@ -50697,7 +50697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="650" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>648</v>
       </c>
@@ -50774,7 +50774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="651" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>649</v>
       </c>
@@ -50851,7 +50851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="652" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>650</v>
       </c>
@@ -50928,7 +50928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="653" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>651</v>
       </c>
@@ -51005,7 +51005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="654" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>652</v>
       </c>
@@ -51082,7 +51082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>653</v>
       </c>
@@ -51159,7 +51159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>654</v>
       </c>
@@ -51236,7 +51236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="657" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>655</v>
       </c>
@@ -51313,7 +51313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="658" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>656</v>
       </c>
@@ -51390,7 +51390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="659" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>657</v>
       </c>
@@ -51467,7 +51467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="660" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>658</v>
       </c>
@@ -51544,7 +51544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="661" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>659</v>
       </c>
@@ -51621,7 +51621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="662" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>660</v>
       </c>
@@ -51698,7 +51698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="663" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>661</v>
       </c>
@@ -51775,7 +51775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="664" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>662</v>
       </c>
@@ -51852,7 +51852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="665" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>663</v>
       </c>
@@ -51929,7 +51929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="666" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>664</v>
       </c>
@@ -52006,7 +52006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="667" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>665</v>
       </c>
@@ -52083,7 +52083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="668" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>666</v>
       </c>
@@ -52160,7 +52160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="669" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>667</v>
       </c>
@@ -52237,7 +52237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="670" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>668</v>
       </c>
@@ -52314,7 +52314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="671" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>669</v>
       </c>
@@ -52391,7 +52391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="672" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>670</v>
       </c>
@@ -52468,7 +52468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="673" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>671</v>
       </c>
@@ -52545,7 +52545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="674" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>672</v>
       </c>
@@ -52622,7 +52622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="675" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>673</v>
       </c>
@@ -52699,7 +52699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="676" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>674</v>
       </c>
@@ -52776,7 +52776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="677" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>675</v>
       </c>
@@ -52853,7 +52853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="678" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>676</v>
       </c>
@@ -52930,7 +52930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="679" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>677</v>
       </c>
@@ -53007,7 +53007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="680" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>678</v>
       </c>
@@ -53084,7 +53084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="681" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>679</v>
       </c>
@@ -53161,7 +53161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="682" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>680</v>
       </c>
@@ -53238,7 +53238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>681</v>
       </c>
@@ -53315,7 +53315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="684" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>682</v>
       </c>
@@ -53392,7 +53392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="685" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>683</v>
       </c>
@@ -53469,7 +53469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>684</v>
       </c>
@@ -53546,7 +53546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="687" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>685</v>
       </c>
@@ -53623,7 +53623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="688" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>686</v>
       </c>
@@ -53700,7 +53700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>687</v>
       </c>
@@ -53777,7 +53777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>688</v>
       </c>
@@ -53854,7 +53854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>689</v>
       </c>
@@ -53931,7 +53931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>690</v>
       </c>
@@ -54008,7 +54008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>691</v>
       </c>
@@ -54085,7 +54085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>692</v>
       </c>
@@ -54162,7 +54162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>693</v>
       </c>
@@ -54239,7 +54239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>694</v>
       </c>
@@ -54316,7 +54316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>695</v>
       </c>
@@ -54393,7 +54393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="698" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>696</v>
       </c>
@@ -54470,7 +54470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="699" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>697</v>
       </c>
@@ -54547,7 +54547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="700" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>698</v>
       </c>
@@ -54624,7 +54624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="701" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>699</v>
       </c>
@@ -54701,7 +54701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>700</v>
       </c>
@@ -54778,7 +54778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="703" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>701</v>
       </c>
@@ -54855,7 +54855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="704" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>702</v>
       </c>
@@ -54932,7 +54932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="705" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>703</v>
       </c>
@@ -55009,7 +55009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="706" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>704</v>
       </c>
@@ -55086,7 +55086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="707" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>705</v>
       </c>
@@ -55163,7 +55163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="708" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>706</v>
       </c>
@@ -55240,7 +55240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="709" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>707</v>
       </c>
@@ -55317,7 +55317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="710" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>708</v>
       </c>
@@ -55394,7 +55394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="711" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>709</v>
       </c>
@@ -55471,7 +55471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="712" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>710</v>
       </c>
@@ -55548,7 +55548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="713" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>711</v>
       </c>
@@ -55625,7 +55625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="714" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>712</v>
       </c>
@@ -55702,7 +55702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="715" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>713</v>
       </c>
@@ -55779,7 +55779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="716" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>714</v>
       </c>
@@ -55856,7 +55856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="717" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>715</v>
       </c>
@@ -55933,7 +55933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="718" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>716</v>
       </c>
@@ -56010,7 +56010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="719" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>717</v>
       </c>
@@ -56087,7 +56087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="720" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>718</v>
       </c>
@@ -56164,7 +56164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="721" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>719</v>
       </c>
@@ -56241,7 +56241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="722" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>720</v>
       </c>
@@ -56318,7 +56318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="723" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>721</v>
       </c>
@@ -56395,7 +56395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="724" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>722</v>
       </c>
@@ -56472,7 +56472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="725" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>723</v>
       </c>
@@ -56549,7 +56549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="726" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>724</v>
       </c>
@@ -56626,7 +56626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="727" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>725</v>
       </c>
@@ -56703,7 +56703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="728" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>726</v>
       </c>
@@ -56780,7 +56780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="729" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>727</v>
       </c>
@@ -56857,7 +56857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="730" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>728</v>
       </c>
@@ -56934,7 +56934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="731" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>729</v>
       </c>
@@ -57011,7 +57011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="732" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>730</v>
       </c>
@@ -57088,7 +57088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="733" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>731</v>
       </c>
@@ -57165,7 +57165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="734" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>732</v>
       </c>
@@ -57242,7 +57242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="735" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>733</v>
       </c>
@@ -57319,7 +57319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="736" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>734</v>
       </c>
@@ -57396,7 +57396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="737" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>735</v>
       </c>
@@ -57473,7 +57473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="738" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>736</v>
       </c>
@@ -57550,7 +57550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="739" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>737</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="740" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>738</v>
       </c>
@@ -57704,7 +57704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="741" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>739</v>
       </c>
@@ -57781,7 +57781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="742" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>740</v>
       </c>
@@ -57858,7 +57858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="743" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>741</v>
       </c>
@@ -57935,7 +57935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="744" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>742</v>
       </c>
@@ -58012,7 +58012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="745" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>743</v>
       </c>
@@ -58089,7 +58089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="746" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>744</v>
       </c>
@@ -58166,7 +58166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="747" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>745</v>
       </c>
@@ -58243,7 +58243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="748" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>746</v>
       </c>
@@ -58320,7 +58320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="749" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>747</v>
       </c>
@@ -58397,7 +58397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="750" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>748</v>
       </c>
@@ -58474,7 +58474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="751" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>749</v>
       </c>
@@ -58551,7 +58551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="752" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>750</v>
       </c>
@@ -58628,7 +58628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="753" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>751</v>
       </c>
@@ -58705,7 +58705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="754" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>752</v>
       </c>
@@ -58782,7 +58782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="755" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>753</v>
       </c>
@@ -58859,7 +58859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="756" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>754</v>
       </c>
@@ -58936,7 +58936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="757" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>755</v>
       </c>
@@ -59013,7 +59013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="758" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>756</v>
       </c>
@@ -59090,7 +59090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="759" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>757</v>
       </c>
@@ -59167,7 +59167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="760" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>758</v>
       </c>
@@ -59244,7 +59244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="761" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>759</v>
       </c>
@@ -59321,7 +59321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="762" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>760</v>
       </c>
@@ -59398,7 +59398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="763" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>761</v>
       </c>
@@ -59475,7 +59475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="764" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>762</v>
       </c>
@@ -59552,7 +59552,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="765" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>763</v>
       </c>
@@ -59629,7 +59629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="766" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>764</v>
       </c>
@@ -59706,7 +59706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="767" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>765</v>
       </c>
@@ -59783,7 +59783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="768" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>766</v>
       </c>
@@ -59860,7 +59860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="769" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>767</v>
       </c>
@@ -59937,7 +59937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="770" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>768</v>
       </c>
@@ -60014,7 +60014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="771" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>769</v>
       </c>
@@ -60091,7 +60091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="772" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>770</v>
       </c>
@@ -60168,7 +60168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="773" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>771</v>
       </c>
@@ -60245,7 +60245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="774" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>772</v>
       </c>
@@ -60322,7 +60322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="775" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>773</v>
       </c>
@@ -60399,7 +60399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="776" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>774</v>
       </c>
@@ -60476,7 +60476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="777" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>775</v>
       </c>
@@ -60553,7 +60553,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="778" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>776</v>
       </c>
@@ -60630,7 +60630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="779" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>777</v>
       </c>
@@ -60707,7 +60707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="780" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>778</v>
       </c>
@@ -60784,7 +60784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="781" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>779</v>
       </c>
@@ -60861,7 +60861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="782" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>780</v>
       </c>
@@ -60938,7 +60938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="783" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>781</v>
       </c>
@@ -61015,7 +61015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="784" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>782</v>
       </c>
@@ -61092,7 +61092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="785" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>783</v>
       </c>
@@ -61169,7 +61169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="786" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>784</v>
       </c>
@@ -61246,7 +61246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="787" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>785</v>
       </c>
@@ -61323,7 +61323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="788" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>786</v>
       </c>
@@ -61400,7 +61400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="789" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>787</v>
       </c>
@@ -61477,7 +61477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="790" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>788</v>
       </c>
@@ -61554,7 +61554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="791" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>789</v>
       </c>
@@ -61631,7 +61631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="792" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>790</v>
       </c>
@@ -61708,7 +61708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="793" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>791</v>
       </c>
@@ -61785,7 +61785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>792</v>
       </c>
@@ -61862,7 +61862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="795" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>793</v>
       </c>
@@ -61939,7 +61939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="796" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>794</v>
       </c>
@@ -62016,7 +62016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="797" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>795</v>
       </c>
@@ -62093,7 +62093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="798" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>796</v>
       </c>
@@ -62170,7 +62170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="799" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>797</v>
       </c>
@@ -62247,7 +62247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="800" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>798</v>
       </c>
@@ -62324,7 +62324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="801" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>799</v>
       </c>
@@ -62401,7 +62401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="802" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>800</v>
       </c>
@@ -62478,7 +62478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="803" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>801</v>
       </c>
@@ -62555,7 +62555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="804" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>802</v>
       </c>
@@ -62632,7 +62632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="805" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>803</v>
       </c>
@@ -62709,7 +62709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="806" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>804</v>
       </c>
@@ -62786,7 +62786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="807" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>805</v>
       </c>
@@ -62863,7 +62863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="808" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>806</v>
       </c>
@@ -62940,7 +62940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="809" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>807</v>
       </c>
@@ -63017,7 +63017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="810" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>808</v>
       </c>
@@ -63094,7 +63094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="811" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>809</v>
       </c>
@@ -63171,7 +63171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="812" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>810</v>
       </c>
@@ -63248,7 +63248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="813" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>811</v>
       </c>
@@ -63325,7 +63325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="814" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>812</v>
       </c>
@@ -63402,7 +63402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="815" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>813</v>
       </c>
@@ -63479,7 +63479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="816" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>814</v>
       </c>
@@ -63556,7 +63556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="817" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>815</v>
       </c>
@@ -63633,7 +63633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="818" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>816</v>
       </c>
@@ -63710,7 +63710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="819" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>817</v>
       </c>
@@ -63787,7 +63787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="820" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>818</v>
       </c>
@@ -63864,7 +63864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="821" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>819</v>
       </c>
@@ -63941,7 +63941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="822" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>820</v>
       </c>
@@ -64018,7 +64018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="823" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>821</v>
       </c>
@@ -64095,7 +64095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="824" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>822</v>
       </c>
@@ -64172,7 +64172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="825" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>823</v>
       </c>
@@ -64249,7 +64249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="826" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>824</v>
       </c>
@@ -64326,7 +64326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="827" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>825</v>
       </c>
@@ -64403,7 +64403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="828" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>826</v>
       </c>
@@ -64480,7 +64480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="829" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>827</v>
       </c>
@@ -64557,7 +64557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="830" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>828</v>
       </c>
@@ -64634,7 +64634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="831" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>829</v>
       </c>
@@ -64711,7 +64711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="832" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>830</v>
       </c>
@@ -64788,7 +64788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="833" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>831</v>
       </c>
@@ -64865,7 +64865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="834" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>832</v>
       </c>
@@ -64942,7 +64942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="835" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>833</v>
       </c>
@@ -65019,7 +65019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="836" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>834</v>
       </c>
@@ -65096,7 +65096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="837" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>835</v>
       </c>
@@ -65173,7 +65173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="838" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>836</v>
       </c>
@@ -65250,7 +65250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="839" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>837</v>
       </c>
@@ -65327,7 +65327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="840" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>838</v>
       </c>
@@ -65404,7 +65404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="841" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>839</v>
       </c>
@@ -65481,7 +65481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="842" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>840</v>
       </c>
@@ -65558,7 +65558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="843" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>841</v>
       </c>
@@ -65635,7 +65635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="844" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>842</v>
       </c>
@@ -65712,7 +65712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="845" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>843</v>
       </c>
@@ -65789,7 +65789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="846" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>844</v>
       </c>
@@ -65866,7 +65866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="847" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>845</v>
       </c>
@@ -65943,7 +65943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="848" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>846</v>
       </c>
@@ -66020,7 +66020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="849" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A849" s="5">
         <v>847</v>
       </c>
@@ -66100,7 +66100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="850" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A850" s="5">
         <v>848</v>
       </c>
@@ -66178,7 +66178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="851" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A851" s="5">
         <v>849</v>
       </c>
@@ -66258,7 +66258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="852" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A852" s="5">
         <v>850</v>
       </c>
@@ -66338,7 +66338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="853" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A853" s="5">
         <v>851</v>
       </c>
@@ -66416,7 +66416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="854" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A854" s="5">
         <v>852</v>
       </c>
@@ -66494,7 +66494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="855" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A855" s="5">
         <v>853</v>
       </c>
@@ -66572,7 +66572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="856" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>854</v>
       </c>
@@ -66649,7 +66649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="857" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>855</v>
       </c>
@@ -66726,7 +66726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="858" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>856</v>
       </c>
@@ -66803,7 +66803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="859" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>857</v>
       </c>
@@ -66880,7 +66880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="860" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>858</v>
       </c>
@@ -66957,7 +66957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="861" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>859</v>
       </c>
@@ -67034,7 +67034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="862" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>860</v>
       </c>
@@ -67111,7 +67111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="863" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>861</v>
       </c>
@@ -67188,7 +67188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="864" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>862</v>
       </c>
@@ -67265,7 +67265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="865" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>863</v>
       </c>
@@ -67342,7 +67342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="866" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>864</v>
       </c>
@@ -67419,7 +67419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="867" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>865</v>
       </c>
@@ -67496,7 +67496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="868" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>866</v>
       </c>
@@ -67573,7 +67573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="869" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>867</v>
       </c>
@@ -67650,7 +67650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="870" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>868</v>
       </c>
@@ -67727,7 +67727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="871" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>869</v>
       </c>
@@ -67804,7 +67804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="872" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>870</v>
       </c>
@@ -67881,7 +67881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="873" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>871</v>
       </c>
@@ -67958,7 +67958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="874" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>872</v>
       </c>
@@ -68035,7 +68035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="875" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>873</v>
       </c>
@@ -68112,7 +68112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="876" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>874</v>
       </c>
@@ -68189,7 +68189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="877" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>875</v>
       </c>
@@ -68266,7 +68266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="878" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>876</v>
       </c>
@@ -68343,7 +68343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="879" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>877</v>
       </c>
@@ -68420,7 +68420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="880" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>878</v>
       </c>
@@ -68497,7 +68497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="881" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>879</v>
       </c>
@@ -68574,7 +68574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="882" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>880</v>
       </c>
@@ -68651,7 +68651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="883" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A883" s="8">
         <v>881</v>
       </c>
@@ -68728,7 +68728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="884" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A884" s="5">
         <v>882</v>
       </c>
@@ -68808,7 +68808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="885" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A885" s="8">
         <v>883</v>
       </c>
@@ -68885,7 +68885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="886" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A886" s="8">
         <v>884</v>
       </c>
@@ -68962,7 +68962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="887" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A887" s="8">
         <v>885</v>
       </c>
@@ -69039,7 +69039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="888" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A888" s="8">
         <v>886</v>
       </c>
@@ -69116,7 +69116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="889" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A889" s="8">
         <v>887</v>
       </c>
@@ -69193,7 +69193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="890" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A890" s="8">
         <v>888</v>
       </c>
@@ -69270,7 +69270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="891" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A891" s="8">
         <v>889</v>
       </c>
@@ -69347,7 +69347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="892" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A892" s="8">
         <v>890</v>
       </c>
@@ -69424,7 +69424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="893" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A893" s="8">
         <v>891</v>
       </c>
@@ -69501,7 +69501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="894" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A894" s="8">
         <v>892</v>
       </c>
@@ -69578,7 +69578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="895" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A895" s="8">
         <v>893</v>
       </c>
@@ -69655,7 +69655,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="896" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A896" s="8">
         <v>894</v>
       </c>
@@ -69732,7 +69732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="897" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A897" s="8">
         <v>895</v>
       </c>
@@ -69809,7 +69809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="898" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A898" s="8">
         <v>896</v>
       </c>
@@ -69886,7 +69886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="899" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A899" s="8">
         <v>897</v>
       </c>
@@ -69963,7 +69963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="900" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A900" s="8">
         <v>898</v>
       </c>
@@ -70040,7 +70040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="901" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A901" s="8">
         <v>899</v>
       </c>
@@ -70117,197 +70117,197 @@
         <v>44</v>
       </c>
     </row>
-    <row r="902" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C902" s="2"/>
       <c r="D902" s="3"/>
       <c r="E902" s="2"/>
     </row>
-    <row r="903" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C903" s="2"/>
       <c r="D903" s="3"/>
       <c r="E903" s="2"/>
     </row>
-    <row r="904" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C904" s="2"/>
       <c r="D904" s="3"/>
       <c r="E904" s="2"/>
     </row>
-    <row r="905" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C905" s="2"/>
       <c r="D905" s="3"/>
       <c r="E905" s="2"/>
     </row>
-    <row r="906" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C906" s="2"/>
       <c r="D906" s="3"/>
       <c r="E906" s="2"/>
     </row>
-    <row r="907" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C907" s="2"/>
       <c r="D907" s="3"/>
       <c r="E907" s="2"/>
     </row>
-    <row r="908" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C908" s="2"/>
       <c r="D908" s="3"/>
       <c r="E908" s="2"/>
     </row>
-    <row r="909" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C909" s="2"/>
       <c r="D909" s="3"/>
       <c r="E909" s="2"/>
     </row>
-    <row r="910" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C910" s="2"/>
       <c r="D910" s="3"/>
       <c r="E910" s="2"/>
     </row>
-    <row r="911" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C911" s="2"/>
       <c r="D911" s="3"/>
       <c r="E911" s="2"/>
     </row>
-    <row r="912" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C912" s="2"/>
       <c r="D912" s="3"/>
       <c r="E912" s="2"/>
     </row>
-    <row r="913" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C913" s="2"/>
       <c r="D913" s="3"/>
       <c r="E913" s="2"/>
     </row>
-    <row r="914" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C914" s="2"/>
       <c r="D914" s="3"/>
       <c r="E914" s="2"/>
     </row>
-    <row r="915" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C915" s="2"/>
       <c r="D915" s="3"/>
       <c r="E915" s="2"/>
     </row>
-    <row r="916" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C916" s="2"/>
       <c r="D916" s="3"/>
       <c r="E916" s="2"/>
     </row>
-    <row r="917" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C917" s="2"/>
       <c r="D917" s="3"/>
       <c r="E917" s="2"/>
     </row>
-    <row r="918" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C918" s="2"/>
       <c r="D918" s="3"/>
       <c r="E918" s="2"/>
     </row>
-    <row r="919" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C919" s="2"/>
       <c r="D919" s="3"/>
       <c r="E919" s="2"/>
     </row>
-    <row r="920" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C920" s="2"/>
       <c r="D920" s="3"/>
       <c r="E920" s="2"/>
     </row>
-    <row r="921" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C921" s="2"/>
       <c r="D921" s="3"/>
       <c r="E921" s="2"/>
     </row>
-    <row r="922" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C922" s="2"/>
       <c r="D922" s="3"/>
       <c r="E922" s="2"/>
     </row>
-    <row r="923" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C923" s="2"/>
       <c r="D923" s="3"/>
       <c r="E923" s="2"/>
     </row>
-    <row r="924" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C924" s="2"/>
       <c r="D924" s="3"/>
       <c r="E924" s="2"/>
     </row>
-    <row r="925" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C925" s="2"/>
       <c r="D925" s="3"/>
       <c r="E925" s="2"/>
     </row>
-    <row r="926" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C926" s="2"/>
       <c r="D926" s="3"/>
       <c r="E926" s="2"/>
     </row>
-    <row r="927" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C927" s="2"/>
       <c r="D927" s="3"/>
       <c r="E927" s="2"/>
     </row>
-    <row r="928" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C928" s="2"/>
       <c r="D928" s="3"/>
       <c r="E928" s="2"/>
     </row>
-    <row r="929" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C929" s="2"/>
       <c r="D929" s="3"/>
       <c r="E929" s="2"/>
     </row>
-    <row r="930" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C930" s="2"/>
       <c r="D930" s="3"/>
       <c r="E930" s="2"/>
     </row>
-    <row r="931" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C931" s="2"/>
       <c r="D931" s="3"/>
       <c r="E931" s="2"/>
     </row>
-    <row r="932" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C932" s="2"/>
       <c r="D932" s="3"/>
       <c r="E932" s="2"/>
     </row>
-    <row r="933" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C933" s="2"/>
       <c r="D933" s="3"/>
       <c r="E933" s="2"/>
     </row>
-    <row r="934" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C934" s="2"/>
       <c r="D934" s="3"/>
       <c r="E934" s="2"/>
     </row>
-    <row r="935" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C935" s="2"/>
       <c r="D935" s="3"/>
       <c r="E935" s="2"/>
     </row>
-    <row r="936" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C936" s="2"/>
       <c r="D936" s="3"/>
       <c r="E936" s="2"/>
     </row>
-    <row r="937" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C937" s="2"/>
       <c r="D937" s="3"/>
       <c r="E937" s="2"/>
     </row>
-    <row r="938" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C938" s="2"/>
       <c r="D938" s="3"/>
       <c r="E938" s="2"/>
     </row>
-    <row r="939" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C939" s="2"/>
       <c r="D939" s="3"/>
       <c r="E939" s="2"/>
     </row>
-    <row r="940" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C940" s="2"/>
       <c r="D940" s="3"/>
       <c r="E940" s="2"/>
@@ -70323,14 +70323,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="117.25" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="117.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -70341,7 +70341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -70352,7 +70352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -70363,7 +70363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -70374,7 +70374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -70385,7 +70385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -70396,7 +70396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -70407,7 +70407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -70418,7 +70418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -70440,7 +70440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -70451,7 +70451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -70462,7 +70462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -70473,7 +70473,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -70484,7 +70484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -70495,7 +70495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -70506,7 +70506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -70517,7 +70517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -70528,7 +70528,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -70539,7 +70539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -70550,7 +70550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -70561,7 +70561,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -70572,7 +70572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -70583,7 +70583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
